--- a/AAII_Financials/Quarterly/MGOL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MGOL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="92">
   <si>
     <t>MGOL</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,83 +665,96 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>700</v>
+      </c>
+      <c r="F8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>200</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -749,57 +762,69 @@
         <v>400</v>
       </c>
       <c r="E9" s="3">
+        <v>500</v>
+      </c>
+      <c r="F9" s="3">
         <v>400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
+        <v>400</v>
+      </c>
+      <c r="H9" s="3">
         <v>200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>100</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>200</v>
+      </c>
+      <c r="F10" s="3">
         <v>-300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>-300</v>
-      </c>
-      <c r="F10" s="3">
-        <v>100</v>
-      </c>
-      <c r="G10" s="3">
-        <v>100</v>
       </c>
       <c r="H10" s="3">
         <v>100</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
+      <c r="I10" s="3">
+        <v>100</v>
+      </c>
+      <c r="J10" s="3">
+        <v>100</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -811,8 +836,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -840,8 +867,14 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -869,37 +902,49 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -927,8 +972,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -937,66 +988,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F17" s="3">
         <v>800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>300</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>-700</v>
+      <c r="D18" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E18" s="3">
         <v>-700</v>
       </c>
       <c r="F18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H18" s="3">
         <v>-600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1008,37 +1073,45 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1066,8 +1139,14 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1095,37 +1174,49 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F23" s="3">
         <v>-700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1153,8 +1244,14 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1182,66 +1279,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1269,8 +1384,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1298,8 +1419,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1327,8 +1454,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1356,66 +1489,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1443,71 +1594,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1519,8 +1688,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1532,23 +1703,25 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>5400</v>
       </c>
       <c r="E41" s="3">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1561,8 +1734,14 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1590,22 +1769,28 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
         <v>100</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
+      <c r="F43" s="3">
+        <v>100</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1619,8 +1804,14 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1630,11 +1821,11 @@
       <c r="E44" s="3">
         <v>100</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
+      <c r="F44" s="3">
+        <v>100</v>
+      </c>
+      <c r="G44" s="3">
+        <v>100</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
@@ -1648,23 +1839,29 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E45" s="3">
+        <v>200</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
         <v>300</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1677,23 +1874,29 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>400</v>
+      </c>
+      <c r="F46" s="3">
         <v>200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>600</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1706,8 +1909,14 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1735,8 +1944,14 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1764,8 +1979,14 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1793,8 +2014,14 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1822,8 +2049,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1851,8 +2084,14 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1880,8 +2119,14 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1909,23 +2154,29 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>400</v>
+      </c>
+      <c r="F54" s="3">
         <v>200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>600</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1938,8 +2189,14 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1951,8 +2208,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1964,22 +2223,24 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E57" s="3">
         <v>600</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
+      <c r="F57" s="3">
+        <v>600</v>
+      </c>
+      <c r="G57" s="3">
+        <v>600</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -1993,22 +2254,28 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
         <v>100</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
+      <c r="F58" s="3">
+        <v>100</v>
+      </c>
+      <c r="G58" s="3">
+        <v>100</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2022,23 +2289,29 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>800</v>
+      </c>
+      <c r="F59" s="3">
         <v>700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>500</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2051,23 +2324,29 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F60" s="3">
         <v>1500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1200</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2080,8 +2359,14 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2109,8 +2394,14 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2138,8 +2429,14 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2167,8 +2464,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2196,8 +2499,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2225,23 +2534,29 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F66" s="3">
         <v>1200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1000</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2254,8 +2569,14 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2267,8 +2588,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2296,8 +2619,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2325,8 +2654,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2354,8 +2689,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2383,23 +2724,29 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-5100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-4400</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2412,8 +2759,14 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2441,8 +2794,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2470,8 +2829,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2499,23 +2864,29 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F76" s="3">
         <v>-900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-400</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2528,8 +2899,14 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2557,71 +2934,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2633,8 +3028,10 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2662,8 +3059,14 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2691,8 +3094,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2720,8 +3129,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2749,8 +3164,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2778,8 +3199,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2807,37 +3234,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H89" s="3">
         <v>-600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2849,8 +3288,10 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2878,8 +3319,14 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2907,8 +3354,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2936,37 +3389,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2978,8 +3443,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3007,8 +3474,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3036,8 +3509,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3065,8 +3544,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3094,28 +3579,34 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
+        <v>8100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>600</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H100" s="3">
         <v>700</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
+      <c r="I100" s="3">
+        <v>0</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3123,8 +3614,14 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3152,33 +3649,45 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E102" s="3">
+        <v>100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MGOL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MGOL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="92">
   <si>
     <t>MGOL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,157 +665,168 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
-        <v>44469</v>
-      </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E8" s="3">
         <v>300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>700</v>
-      </c>
-      <c r="F8" s="3">
-        <v>100</v>
       </c>
       <c r="G8" s="3">
         <v>100</v>
       </c>
       <c r="H8" s="3">
+        <v>100</v>
+      </c>
+      <c r="I8" s="3">
+        <v>100</v>
+      </c>
+      <c r="J8" s="3">
         <v>300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>200</v>
       </c>
-      <c r="J8" s="3">
-        <v>200</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>900</v>
+      </c>
+      <c r="E9" s="3">
         <v>400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>500</v>
-      </c>
-      <c r="F9" s="3">
-        <v>400</v>
       </c>
       <c r="G9" s="3">
         <v>400</v>
       </c>
       <c r="H9" s="3">
+        <v>300</v>
+      </c>
+      <c r="I9" s="3">
+        <v>400</v>
+      </c>
+      <c r="J9" s="3">
         <v>200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>100</v>
       </c>
-      <c r="J9" s="3">
-        <v>100</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E10" s="3">
         <v>-100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>200</v>
-      </c>
-      <c r="F10" s="3">
-        <v>-300</v>
       </c>
       <c r="G10" s="3">
         <v>-300</v>
       </c>
       <c r="H10" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="I10" s="3">
-        <v>100</v>
+        <v>-300</v>
       </c>
       <c r="J10" s="3">
         <v>100</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
+      <c r="K10" s="3">
+        <v>100</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
@@ -823,8 +834,11 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -838,8 +852,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -873,8 +888,11 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -908,13 +926,16 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -922,8 +943,8 @@
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -934,8 +955,8 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
@@ -943,8 +964,11 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -978,8 +1002,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -990,51 +1017,55 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>3400</v>
       </c>
       <c r="E17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F17" s="3">
         <v>1400</v>
-      </c>
-      <c r="F17" s="3">
-        <v>800</v>
       </c>
       <c r="G17" s="3">
         <v>800</v>
       </c>
       <c r="H17" s="3">
+        <v>800</v>
+      </c>
+      <c r="I17" s="3">
+        <v>700</v>
+      </c>
+      <c r="J17" s="3">
         <v>900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>300</v>
       </c>
-      <c r="J17" s="3">
-        <v>300</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>-1400</v>
       </c>
       <c r="E18" s="3">
-        <v>-700</v>
+        <v>-1200</v>
       </c>
       <c r="F18" s="3">
         <v>-700</v>
@@ -1043,25 +1074,28 @@
         <v>-700</v>
       </c>
       <c r="H18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I18" s="3">
         <v>-600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1075,19 +1109,20 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1099,10 +1134,10 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
+        <v>-100</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
@@ -1110,16 +1145,19 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-1200</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -1127,11 +1165,11 @@
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
+      <c r="H21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-600</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1145,8 +1183,11 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1180,43 +1221,49 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-800</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-700</v>
       </c>
       <c r="G23" s="3">
         <v>-700</v>
       </c>
       <c r="H23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I23" s="3">
         <v>-600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1250,8 +1297,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1285,78 +1335,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-1400</v>
       </c>
       <c r="E26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-800</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-700</v>
       </c>
       <c r="G26" s="3">
         <v>-700</v>
       </c>
       <c r="H26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I26" s="3">
         <v>-600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-1300</v>
       </c>
       <c r="E27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-700</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-600</v>
       </c>
       <c r="G27" s="3">
         <v>-600</v>
       </c>
       <c r="H27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I27" s="3">
         <v>-500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1390,8 +1449,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1425,8 +1487,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1460,8 +1525,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1495,19 +1563,22 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -1519,10 +1590,10 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
@@ -1530,43 +1601,49 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-1300</v>
       </c>
       <c r="E33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-700</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-600</v>
       </c>
       <c r="G33" s="3">
         <v>-600</v>
       </c>
       <c r="H33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I33" s="3">
         <v>-500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1600,83 +1677,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-1300</v>
       </c>
       <c r="E35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-700</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-600</v>
       </c>
       <c r="G35" s="3">
         <v>-600</v>
       </c>
       <c r="H35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I35" s="3">
         <v>-500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
-        <v>44469</v>
-      </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1690,8 +1776,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1705,22 +1792,23 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E41" s="3">
         <v>5400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1740,8 +1828,11 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1775,22 +1866,25 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F43" s="3">
         <v>100</v>
       </c>
       <c r="G43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1810,13 +1904,16 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E44" s="3">
         <v>100</v>
@@ -1845,22 +1942,25 @@
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E45" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F45" s="3">
         <v>200</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
       <c r="G45" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1880,23 +1980,26 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E46" s="3">
         <v>6800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>200</v>
       </c>
-      <c r="G46" s="3">
-        <v>600</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1915,8 +2018,11 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1950,31 +2056,34 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -1985,8 +2094,11 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2020,8 +2132,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2055,8 +2170,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2090,8 +2208,11 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2125,8 +2246,11 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2160,23 +2284,26 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E54" s="3">
         <v>7000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>200</v>
       </c>
-      <c r="G54" s="3">
-        <v>600</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2195,8 +2322,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2210,8 +2340,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2225,16 +2356,17 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>500</v>
+      </c>
+      <c r="E57" s="3">
         <v>700</v>
-      </c>
-      <c r="E57" s="3">
-        <v>600</v>
       </c>
       <c r="F57" s="3">
         <v>600</v>
@@ -2260,8 +2392,11 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2269,7 +2404,7 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
         <v>100</v>
@@ -2295,8 +2430,11 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2304,14 +2442,14 @@
         <v>400</v>
       </c>
       <c r="E59" s="3">
+        <v>400</v>
+      </c>
+      <c r="F59" s="3">
         <v>800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>700</v>
       </c>
-      <c r="G59" s="3">
-        <v>500</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2330,23 +2468,26 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>800</v>
+      </c>
+      <c r="E60" s="3">
         <v>1100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1500</v>
       </c>
-      <c r="G60" s="3">
-        <v>1200</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2365,8 +2506,11 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2400,8 +2544,11 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2435,8 +2582,11 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2470,8 +2620,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2505,8 +2658,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2540,23 +2696,26 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>400</v>
+      </c>
+      <c r="E66" s="3">
         <v>600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1200</v>
       </c>
-      <c r="G66" s="3">
-        <v>1000</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2575,8 +2734,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2590,8 +2752,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2625,8 +2788,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2660,8 +2826,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2695,8 +2864,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2730,23 +2902,26 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-7000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-5800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-5100</v>
       </c>
-      <c r="G72" s="3">
-        <v>-4400</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2765,8 +2940,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2800,8 +2978,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2835,8 +3016,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2870,23 +3054,26 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E76" s="3">
         <v>6300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-900</v>
       </c>
-      <c r="G76" s="3">
-        <v>-400</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2905,8 +3092,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2940,83 +3130,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
-        <v>44469</v>
-      </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-1300</v>
       </c>
       <c r="E81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-700</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-600</v>
       </c>
       <c r="G81" s="3">
         <v>-600</v>
       </c>
       <c r="H81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I81" s="3">
         <v>-500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3030,8 +3229,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3041,20 +3241,20 @@
       <c r="E83" s="3">
         <v>0</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I83" s="3">
         <v>0</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -3065,8 +3265,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3100,8 +3303,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3135,8 +3341,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3170,8 +3379,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3205,8 +3417,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3240,32 +3455,35 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J89" s="3">
         <v>-600</v>
       </c>
-      <c r="I89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3275,8 +3493,11 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3290,8 +3511,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3299,7 +3521,7 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -3325,8 +3547,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3360,8 +3585,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3395,34 +3623,37 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -3430,8 +3661,11 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3445,8 +3679,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3480,8 +3715,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3515,8 +3753,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3550,8 +3791,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3585,32 +3829,35 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>8100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>600</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
+      <c r="G100" s="3">
+        <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>800</v>
+      </c>
+      <c r="I100" s="3">
+        <v>300</v>
+      </c>
+      <c r="J100" s="3">
         <v>700</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3620,8 +3867,11 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3655,31 +3905,34 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>-1300</v>
       </c>
       <c r="E102" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-200</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="H102" s="3">
         <v>100</v>
       </c>
       <c r="I102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="J102" s="3">
+        <v>100</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
@@ -3688,6 +3941,9 @@
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MGOL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MGOL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="92">
   <si>
     <t>MGOL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,80 +665,84 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E8" s="3">
         <v>2000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>700</v>
-      </c>
-      <c r="G8" s="3">
-        <v>100</v>
       </c>
       <c r="H8" s="3">
         <v>100</v>
@@ -747,22 +751,25 @@
         <v>100</v>
       </c>
       <c r="J8" s="3">
+        <v>100</v>
+      </c>
+      <c r="K8" s="3">
         <v>300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>200</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -770,66 +777,69 @@
         <v>900</v>
       </c>
       <c r="E9" s="3">
+        <v>900</v>
+      </c>
+      <c r="F9" s="3">
         <v>400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>100</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>600</v>
+      </c>
+      <c r="E10" s="3">
         <v>1100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-300</v>
-      </c>
-      <c r="J10" s="3">
-        <v>100</v>
       </c>
       <c r="K10" s="3">
         <v>100</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
+      <c r="L10" s="3">
+        <v>100</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
@@ -837,8 +847,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -853,8 +866,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -891,8 +905,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,8 +946,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -958,8 +978,8 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
@@ -967,8 +987,11 @@
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1005,8 +1028,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,57 +1044,61 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
         <v>3400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1400</v>
-      </c>
-      <c r="G17" s="3">
-        <v>800</v>
       </c>
       <c r="H17" s="3">
         <v>800</v>
       </c>
       <c r="I17" s="3">
+        <v>800</v>
+      </c>
+      <c r="J17" s="3">
         <v>700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>300</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1200</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-700</v>
       </c>
       <c r="G18" s="3">
         <v>-700</v>
@@ -1077,25 +1107,28 @@
         <v>-700</v>
       </c>
       <c r="I18" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="J18" s="3">
         <v>-600</v>
       </c>
       <c r="K18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,37 +1143,38 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
+      <c r="L20" s="3">
+        <v>0</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
@@ -1148,32 +1182,35 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1200</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3">
         <v>-800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-600</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1186,8 +1223,11 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1224,46 +1264,52 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-800</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-600</v>
       </c>
       <c r="J23" s="3">
         <v>-600</v>
       </c>
       <c r="K23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1300,8 +1346,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,84 +1387,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-800</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-600</v>
       </c>
       <c r="J26" s="3">
         <v>-600</v>
       </c>
       <c r="K26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-700</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-500</v>
       </c>
       <c r="J27" s="3">
         <v>-500</v>
       </c>
       <c r="K27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1490,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,37 +1633,40 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
+      <c r="L32" s="3">
+        <v>0</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
@@ -1604,46 +1674,52 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-700</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-500</v>
       </c>
       <c r="J33" s="3">
         <v>-500</v>
       </c>
       <c r="K33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,89 +1756,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-700</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-500</v>
       </c>
       <c r="J35" s="3">
         <v>-500</v>
       </c>
       <c r="K35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,25 +1879,26 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E41" s="3">
         <v>4100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
+      <c r="H41" s="3">
+        <v>0</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1831,8 +1918,11 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1869,25 +1959,28 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>100</v>
+      </c>
+      <c r="E43" s="3">
         <v>200</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
       <c r="F43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G43" s="3">
         <v>100</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
+      <c r="H43" s="3">
+        <v>100</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1907,16 +2000,19 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>700</v>
+      </c>
+      <c r="E44" s="3">
         <v>300</v>
-      </c>
-      <c r="E44" s="3">
-        <v>100</v>
       </c>
       <c r="F44" s="3">
         <v>100</v>
@@ -1924,8 +2020,8 @@
       <c r="G44" s="3">
         <v>100</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
+      <c r="H44" s="3">
+        <v>100</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
@@ -1945,25 +2041,28 @@
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>700</v>
+      </c>
+      <c r="E45" s="3">
         <v>600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>200</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
+      <c r="H45" s="3">
+        <v>0</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1983,26 +2082,29 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E46" s="3">
         <v>5200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>200</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2021,8 +2123,11 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2059,19 +2164,22 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E48" s="3">
         <v>100</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
+      <c r="F48" s="3">
+        <v>100</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -2085,8 +2193,8 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
@@ -2097,8 +2205,11 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2135,8 +2246,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,8 +2328,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2249,8 +2369,11 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,26 +2410,29 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E54" s="3">
         <v>5400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>200</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2325,8 +2451,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,8 +2487,9 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2366,16 +2497,16 @@
         <v>500</v>
       </c>
       <c r="E57" s="3">
+        <v>500</v>
+      </c>
+      <c r="F57" s="3">
         <v>700</v>
-      </c>
-      <c r="F57" s="3">
-        <v>600</v>
       </c>
       <c r="G57" s="3">
         <v>600</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
+      <c r="H57" s="3">
+        <v>600</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2395,8 +2526,11 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2407,13 +2541,13 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>100</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
+      <c r="H58" s="3">
+        <v>100</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2433,26 +2567,29 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E59" s="3">
         <v>400</v>
       </c>
       <c r="F59" s="3">
+        <v>400</v>
+      </c>
+      <c r="G59" s="3">
         <v>800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>700</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2471,26 +2608,29 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>700</v>
+      </c>
+      <c r="E60" s="3">
         <v>800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1500</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2509,8 +2649,11 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2547,8 +2690,11 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2585,8 +2731,11 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,26 +2854,29 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>200</v>
+      </c>
+      <c r="E66" s="3">
         <v>400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1200</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2737,8 +2895,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2867,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,26 +3076,29 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-8300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-7000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-5800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-5100</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2943,8 +3117,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,26 +3240,29 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E76" s="3">
         <v>5000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-900</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3095,8 +3281,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,89 +3322,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-700</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-500</v>
       </c>
       <c r="J81" s="3">
         <v>-500</v>
       </c>
       <c r="K81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,8 +3428,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3241,8 +3440,8 @@
       <c r="E83" s="3">
         <v>0</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
+      <c r="F83" s="3">
+        <v>0</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
@@ -3250,14 +3449,14 @@
       <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -3268,8 +3467,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,35 +3672,38 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-600</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3496,8 +3713,11 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,8 +3732,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3521,11 +3742,11 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
@@ -3550,8 +3771,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,8 +3853,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3635,28 +3865,28 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
+      <c r="H94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -3664,8 +3894,11 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3718,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,35 +4075,38 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>8100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>600</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>700</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3870,8 +4116,11 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3908,25 +4157,28 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>5300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-200</v>
-      </c>
-      <c r="H102" s="3">
-        <v>100</v>
       </c>
       <c r="I102" s="3">
         <v>100</v>
@@ -3934,8 +4186,8 @@
       <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
+      <c r="K102" s="3">
+        <v>100</v>
       </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
@@ -3944,6 +4196,9 @@
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
